--- a/src/com/data/Test Cases Pa.xlsx
+++ b/src/com/data/Test Cases Pa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="60">
   <si>
     <t>TCID</t>
   </si>
@@ -186,6 +186,15 @@
   </si>
   <si>
     <t>BUILD001 :: Yes :: BUILD001 Chief Plan Examiner :: null</t>
+  </si>
+  <si>
+    <t>LaaNew</t>
+  </si>
+  <si>
+    <t>LAA - New</t>
+  </si>
+  <si>
+    <t>Laa :: AJOETEST2@GMAIL.COM :: Professional Engineer :: AJ2</t>
   </si>
 </sst>
 </file>
@@ -970,7 +979,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1072,6 +1081,18 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1589,7 +1610,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
@@ -1838,7 +1859,9 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="23"/>
+      <c r="A35" s="34" t="s">
+        <v>57</v>
+      </c>
       <c r="C35" s="29" t="s">
         <v>3</v>
       </c>
@@ -1927,11 +1950,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R12" sqref="R12"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
@@ -2480,6 +2503,162 @@
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
     </row>
+    <row r="19" spans="1:24" s="40" customFormat="1">
+      <c r="A19" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="I19" s="4"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+    </row>
+    <row r="20" spans="1:24" s="36" customFormat="1" ht="25.5">
+      <c r="A20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+    </row>
+    <row r="21" spans="1:24" s="4" customFormat="1" ht="140.25">
+      <c r="A21" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+    </row>
+    <row r="22" spans="1:24" s="42" customFormat="1">
+      <c r="A22" s="24"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="4"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/com/data/Test Cases Pa.xlsx
+++ b/src/com/data/Test Cases Pa.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="58">
   <si>
     <t>TCID</t>
   </si>
@@ -59,9 +59,6 @@
     <t>BUILD027 :: Permit Issued :: No :: No</t>
   </si>
   <si>
-    <t>cpe_action</t>
-  </si>
-  <si>
     <t>cpe</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>ElevRemoveTest</t>
   </si>
   <si>
-    <t>BUILD031 :: Permit Issued ::  ::  ::  :: No :: No</t>
-  </si>
-  <si>
     <t>ElevRenewPermitTest</t>
   </si>
   <si>
@@ -116,9 +110,6 @@
     <t>owner_info</t>
   </si>
   <si>
-    <t>event_info</t>
-  </si>
-  <si>
     <t>tech_report</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t>file</t>
   </si>
   <si>
-    <t>zoning</t>
-  </si>
-  <si>
     <t>Place of Assembly</t>
   </si>
   <si>
@@ -170,31 +158,37 @@
     <t>party</t>
   </si>
   <si>
-    <t>AJOETEST1@GMAIL.COM :: Friend</t>
-  </si>
-  <si>
-    <t>BUILD007 :: CPE/ACPE Team 1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>BUILD001 :: Yes :: BUILD001 Chief Plan Examiner :: BUILD040 Chief Plan Examiner</t>
   </si>
   <si>
-    <t>ca</t>
-  </si>
-  <si>
     <t>BUILD001 :: Yes :: BUILD001 Chief Plan Examiner :: null</t>
   </si>
   <si>
     <t>LaaNew</t>
   </si>
   <si>
-    <t>LAA - New</t>
-  </si>
-  <si>
-    <t>Laa :: AJOETEST2@GMAIL.COM :: Professional Engineer :: AJ2</t>
+    <t xml:space="preserve">AJOETEST1@GMAIL.COM :: </t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>cpe_acpe</t>
+  </si>
+  <si>
+    <t>primary_pe</t>
+  </si>
+  <si>
+    <t>secondary_pe</t>
+  </si>
+  <si>
+    <t>BUILD007 :: CPE/ACPE Team 1 :: Yes :: BUILD001 Chief Plan Examiner :: BUILD005 Plan Examiner</t>
+  </si>
+  <si>
+    <t>BUILD027 :: No :: Approved :: Yes</t>
+  </si>
+  <si>
+    <t>BUILD001 :: No :: Approved :: Yes</t>
   </si>
 </sst>
 </file>
@@ -979,7 +973,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -996,9 +990,6 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1083,17 +1074,14 @@
     <xf numFmtId="49" fontId="22" fillId="42" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="212">
@@ -1615,9 +1603,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="30" customWidth="1"/>
     <col min="4" max="16384" width="32.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -1628,317 +1616,317 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="23" t="s">
+      <c r="C4" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="23" t="s">
+      <c r="C5" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="A6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1">
-      <c r="A6" s="34" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="34" t="s">
+      <c r="C7" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="34" t="s">
+      <c r="C8" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="34" t="s">
+      <c r="C9" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="2" customFormat="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="2" customFormat="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="2" customFormat="1">
+      <c r="B13" s="31"/>
+      <c r="C13" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1">
+      <c r="A14" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" s="2" customFormat="1">
+      <c r="A15" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="2" customFormat="1">
+      <c r="A16" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="2" customFormat="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="2" customFormat="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1">
-      <c r="B13" s="32"/>
-      <c r="C13" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1">
-      <c r="A14" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1">
-      <c r="A15" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="2" customFormat="1">
-      <c r="A16" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="29" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="29" t="s">
+      <c r="A17" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="26"/>
-      <c r="C18" s="30" t="s">
+      <c r="A18" s="25"/>
+      <c r="C18" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="25"/>
-      <c r="C19" s="29" t="s">
+      <c r="A19" s="24"/>
+      <c r="C19" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5"/>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5"/>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="29" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="26"/>
-      <c r="C23" s="29" t="s">
+      <c r="A23" s="25"/>
+      <c r="C23" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="25"/>
-      <c r="C24" s="29" t="s">
+      <c r="A24" s="24"/>
+      <c r="C24" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5"/>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5"/>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5"/>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="2" customFormat="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="29" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="33"/>
-      <c r="C29" s="29" t="s">
+      <c r="A29" s="32"/>
+      <c r="C29" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="33"/>
-      <c r="C30" s="29" t="s">
+      <c r="A30" s="32"/>
+      <c r="C30" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="2" customFormat="1">
-      <c r="A31" s="33"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="29" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="23"/>
-      <c r="C33" s="29" t="s">
+      <c r="A33" s="22"/>
+      <c r="C33" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="23"/>
-      <c r="C34" s="29" t="s">
+      <c r="A34" s="22"/>
+      <c r="C34" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="29" t="s">
+      <c r="A35" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="23"/>
-      <c r="C36" s="29" t="s">
+      <c r="A36" s="22"/>
+      <c r="C36" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="34"/>
-      <c r="C37" s="29" t="s">
+      <c r="A37" s="33"/>
+      <c r="C37" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="34"/>
-      <c r="C38" s="29" t="s">
+      <c r="A38" s="33"/>
+      <c r="C38" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="34"/>
-      <c r="C39" s="29" t="s">
+      <c r="A39" s="33"/>
+      <c r="C39" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="34"/>
-      <c r="C40" s="29" t="s">
+      <c r="A40" s="33"/>
+      <c r="C40" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="28" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1950,714 +1938,534 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K21" sqref="K21"/>
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.28515625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="22.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="27.140625" style="11"/>
+    <col min="1" max="1" width="33.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.28515625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="39.28515625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="27.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="21" customFormat="1">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-    </row>
-    <row r="2" spans="1:25" s="7" customFormat="1">
-      <c r="A2" s="34" t="s">
-        <v>38</v>
+    <row r="1" spans="1:23" s="20" customFormat="1">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+    </row>
+    <row r="2" spans="1:23" s="7" customFormat="1">
+      <c r="A2" s="33" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="J2" s="8"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-    </row>
-    <row r="3" spans="1:25" s="9" customFormat="1">
-      <c r="A3" s="13" t="s">
+    </row>
+    <row r="3" spans="1:23" s="8" customFormat="1">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="H3" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="I3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+    </row>
+    <row r="4" spans="1:23" s="4" customFormat="1" ht="38.25">
+      <c r="A4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="36" t="s">
+      <c r="L4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="35"/>
-    </row>
-    <row r="4" spans="1:25" s="4" customFormat="1" ht="38.25">
-      <c r="A4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="Q4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+    </row>
+    <row r="5" spans="1:23" ht="15">
+      <c r="A5" s="23"/>
       <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:25" s="7" customFormat="1">
-      <c r="A6" s="34" t="s">
-        <v>48</v>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="1:23" s="7" customFormat="1">
+      <c r="A6" s="33" t="s">
+        <v>44</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="J6" s="8"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-    </row>
-    <row r="7" spans="1:25" s="9" customFormat="1">
-      <c r="A7" s="13" t="s">
+    </row>
+    <row r="7" spans="1:23" s="8" customFormat="1">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="G7" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="I7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+    </row>
+    <row r="8" spans="1:23" s="4" customFormat="1" ht="38.25">
+      <c r="A8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="36" t="s">
+      <c r="L8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-    </row>
-    <row r="8" spans="1:25" s="4" customFormat="1" ht="38.25">
-      <c r="A8" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="38" t="s">
+      <c r="Q8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>54</v>
+      <c r="R8" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="24"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+    </row>
+    <row r="9" spans="1:23" ht="15">
+      <c r="A9" s="23"/>
       <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" s="7" customFormat="1">
-      <c r="A10" s="34" t="s">
-        <v>25</v>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="1:23" s="7" customFormat="1">
+      <c r="A10" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="J10" s="8"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-    </row>
-    <row r="11" spans="1:25" s="9" customFormat="1">
-      <c r="A11" s="13" t="s">
+    </row>
+    <row r="11" spans="1:23" s="8" customFormat="1">
+      <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="G11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="H11" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="I11" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="S11" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+    </row>
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="38.25">
+      <c r="A12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="36" t="s">
+      <c r="L12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="S11" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="T11" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="U11" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-    </row>
-    <row r="12" spans="1:25" s="4" customFormat="1" ht="38.25">
-      <c r="A12" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U12" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" s="24"/>
-    </row>
-    <row r="14" spans="1:25" s="21" customFormat="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-    </row>
-    <row r="19" spans="1:24" s="40" customFormat="1">
-      <c r="A19" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="I19" s="4"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-    </row>
-    <row r="20" spans="1:24" s="36" customFormat="1" ht="25.5">
-      <c r="A20" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="L20" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="N20" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="R20" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="S20" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-    </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" ht="140.25">
-      <c r="A21" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-    </row>
-    <row r="22" spans="1:24" s="42" customFormat="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="4"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="23"/>
+    </row>
+    <row r="14" spans="1:23" s="20" customFormat="1">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
